--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_6_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.9580108358433</v>
+        <v>24866.6441563328</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.9580108358433</v>
+        <v>24866.6441563328</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60883.02369138401</v>
+        <v>4429583.899081815</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60883.02369138401</v>
+        <v>4429583.899081815</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609783201.696034</v>
+        <v>62050185.44771041</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14644.31993593642</v>
+        <v>1424186.758180938</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28700.06476766726</v>
+        <v>2746532.650530162</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42755.80959939808</v>
+        <v>4068878.542879387</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59591.7278597213</v>
+        <v>5174054.262062768</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75128.40723285366</v>
+        <v>6415787.465281053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90665.08660598603</v>
+        <v>7657520.668499336</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106205.210209635</v>
+        <v>8899339.546951719</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121744.9032844695</v>
+        <v>10141072.75017</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138579.2400121102</v>
+        <v>11245966.34570716</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154099.569359348</v>
+        <v>12488863.88251135</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169619.8987065859</v>
+        <v>13731761.41931554</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185140.2280538237</v>
+        <v>14974658.95611974</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200660.5574010615</v>
+        <v>16217556.49292395</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216982.1002505121</v>
+        <v>17374389.0539254</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236974.66237305</v>
+        <v>18076509.4583042</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>52</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1372</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
